--- a/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
@@ -107,7 +107,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
@@ -107,7 +107,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
@@ -107,7 +107,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
@@ -107,7 +107,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
@@ -107,7 +107,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>

--- a/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
+++ b/docs/ics-attack-v13.1/ics-attack-v13.1-campaigns.xlsx
@@ -107,7 +107,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>,(Citation: Marshall Abrams July 2008),</t>
